--- a/spreadsheet/macrofree/azureexpressroute_sg_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/azureexpressroute_sg_checklist.pt.xlsx
@@ -1095,12 +1095,12 @@
       <c r="B9" s="21" t="n"/>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Diversidade de camadas físicas</t>
+          <t>Planejar circuitos com redundância geográfica</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>Para obter melhor resiliência, planeje ter vários caminhos entre a borda local e os locais de emparelhamento (locais de borda do provedor/Microsoft). Essa configuração pode ser obtida passando por um provedor de serviços diferente ou por um local diferente da rede local.</t>
+          <t>Para planejar a recuperação de desastre, configure circuitos do ExpressRoute em mais de um local de emparelhamento. Você pode criar circuitos em locais de emparelhamento na mesma área metropolitana ou em uma área metropolitana diferente e optar por trabalhar com diferentes provedores de serviços para diversos caminhos em cada circuito. Para obter mais informações, consulte Projetando para recuperação de desastre e Projetando para alta disponibilidade.</t>
         </is>
       </c>
       <c r="E9" s="21" t="n"/>
@@ -1116,7 +1116,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>4f51aa2e-2a6a-4ea1-9c8a-f9ee668052af</t>
+          <t>14b83764-dab1-4741-85ee-7b3cf55cde49</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1129,12 +1129,12 @@
       <c r="B10" s="21" t="n"/>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Planejar circuitos com redundância geográfica</t>
+          <t>Planejar a conectividade Ativo-Ativo</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>Para planejar a recuperação de desastre, configure circuitos do ExpressRoute em mais de um local de emparelhamento. Você pode criar circuitos em locais de emparelhamento na mesma área metropolitana ou em uma área metropolitana diferente e optar por trabalhar com diferentes provedores de serviços para diversos caminhos em cada circuito. Para obter mais informações, consulte Projetando para recuperação de desastre e Projetando para alta disponibilidade.</t>
+          <t>Os circuitos dedicados do ExpressRoute garantem a disponibilidade de '99,95%' quando uma conectividade ativa-ativa é configurada entre o local e o Azure. Esse modo fornece maior disponibilidade da conexão do Expressroute. Também é recomendável configurar o BFD para failover mais rápido se houver uma falha de link em uma conexão.</t>
         </is>
       </c>
       <c r="E10" s="21" t="n"/>
@@ -1150,7 +1150,7 @@
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>14b83764-dab1-4741-85ee-7b3cf55cde49</t>
+          <t>f28fea39-a9e2-45ef-a711-997456c3d42c</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1163,12 +1163,12 @@
       <c r="B11" s="21" t="n"/>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Planejar a conectividade Ativo-Ativo</t>
+          <t>Planejando gateways de rede virtual</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>Os circuitos dedicados do ExpressRoute garantem a disponibilidade de '99,95%' quando uma conectividade ativa-ativa é configurada entre o local e o Azure. Esse modo fornece maior disponibilidade da conexão do Expressroute. Também é recomendável configurar o BFD para failover mais rápido se houver uma falha de link em uma conexão.</t>
+          <t>Crie um Gateway de Rede Virtual com reconhecimento de zona de disponibilidade para maior resiliência e planeje Gateways de Rede Virtual em diferentes regiões para recuperação de desastre e alta disponibilidade.</t>
         </is>
       </c>
       <c r="E11" s="21" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>f28fea39-a9e2-45ef-a711-997456c3d42c</t>
+          <t>8e29e63c-2da5-4242-8a86-c7083b231b0f</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1197,12 +1197,12 @@
       <c r="B12" s="21" t="n"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Planejando gateways de rede virtual</t>
+          <t>Monitorar circuitos e integridade do gateway</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>Crie um Gateway de Rede Virtual com reconhecimento de zona de disponibilidade para maior resiliência e planeje Gateways de Rede Virtual em diferentes regiões para recuperação de desastre e alta disponibilidade.</t>
+          <t>Configure o monitoramento e os alertas para circuitos do ExpressRoute e a integridade do Gateway de Rede Virtual com base em várias métricas disponíveis.</t>
         </is>
       </c>
       <c r="E12" s="21" t="n"/>
@@ -1218,7 +1218,7 @@
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>8e29e63c-2da5-4242-8a86-c7083b231b0f</t>
+          <t>0367cde8-2954-4b20-8be0-fb2b7e50eb91</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1231,12 +1231,12 @@
       <c r="B13" s="21" t="n"/>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Monitorar circuitos e integridade do gateway</t>
+          <t>Habilitar a integridade do serviço</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>Configure o monitoramento e os alertas para circuitos do ExpressRoute e a integridade do Gateway de Rede Virtual com base em várias métricas disponíveis.</t>
+          <t>O ExpressRoute usa a integridade do serviço para notificar sobre manutenção planejada e não planejada. A configuração da integridade do serviço notificará você sobre as alterações feitas nos circuitos do ExpressRoute.</t>
         </is>
       </c>
       <c r="E13" s="21" t="n"/>
@@ -1252,7 +1252,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>0367cde8-2954-4b20-8be0-fb2b7e50eb91</t>
+          <t>c7bf09c0-317f-4f7f-be8d-3d74444757c8</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1265,12 +1265,12 @@
       <c r="B14" s="21" t="n"/>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Habilitar a integridade do serviço</t>
+          <t>Configurar o log de atividades para enviar logs para o arquivo morto</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>O ExpressRoute usa a integridade do serviço para notificar sobre manutenção planejada e não planejada. A configuração da integridade do serviço notificará você sobre as alterações feitas nos circuitos do ExpressRoute.</t>
+          <t>Os logs de atividades fornecem insights sobre as operações que foram executadas no nível da assinatura para recursos do ExpressRoute. Com os logs de atividades, você pode determinar quem e quando uma operação foi executada no plano de controle. A retenção de dados é de apenas 90 dias e precisa ser armazenada no Log Analytics, nos Hubs de Eventos ou em uma conta de armazenamento para arquivamento.</t>
         </is>
       </c>
       <c r="E14" s="21" t="n"/>
@@ -1286,7 +1286,7 @@
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>c7bf09c0-317f-4f7f-be8d-3d74444757c8</t>
+          <t>b1f76928-0fc3-407e-8658-f93f2812873f</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1299,12 +1299,12 @@
       <c r="B15" s="21" t="n"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Configurar o log de atividades para enviar logs para o arquivo morto</t>
+          <t>Manter inventário de contas administrativas</t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>Os logs de atividades fornecem insights sobre as operações que foram executadas no nível da assinatura para recursos do ExpressRoute. Com os logs de atividades, você pode determinar quem e quando uma operação foi executada no plano de controle. A retenção de dados é de apenas 90 dias e precisa ser armazenada no Log Analytics, nos Hubs de Eventos ou em uma conta de armazenamento para arquivamento.</t>
+          <t>Use o RBAC do Azure para configurar funções para limitar contas de usuário que podem adicionar, atualizar ou excluir a configuração de emparelhamento em um circuito do ExpressRoute.</t>
         </is>
       </c>
       <c r="E15" s="21" t="n"/>
@@ -1320,7 +1320,7 @@
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>b1f76928-0fc3-407e-8658-f93f2812873f</t>
+          <t>61fced7c-71af-4061-a73a-b880e8ee4f78</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1333,12 +1333,12 @@
       <c r="B16" s="21" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Manter inventário de contas administrativas</t>
+          <t>Configurar hash MD5 no circuito do ExpressRoute</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>Use o RBAC do Azure para configurar funções para limitar contas de usuário que podem adicionar, atualizar ou excluir a configuração de emparelhamento em um circuito do ExpressRoute.</t>
+          <t>Durante a configuração do emparelhamento privado ou do emparelhamento da Microsoft, aplique um hash MD5 para proteger mensagens entre a rota local e os roteadores MSEE.</t>
         </is>
       </c>
       <c r="E16" s="21" t="n"/>
@@ -1354,7 +1354,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>61fced7c-71af-4061-a73a-b880e8ee4f78</t>
+          <t>7091a086-8128-45f8-81e6-c93548433b87</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1367,12 +1367,12 @@
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Configurar hash MD5 no circuito do ExpressRoute</t>
+          <t>Configurar o MACSec para recursos do ExpressRoute Direct</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>Durante a configuração do emparelhamento privado ou do emparelhamento da Microsoft, aplique um hash MD5 para proteger mensagens entre a rota local e os roteadores MSEE.</t>
+          <t>A segurança do Controle de Acesso à Mídia é uma segurança ponto a ponto na camada de enlace de dados. O ExpressRoute Direct dá suporte à configuração do MACSec para evitar ameaças de segurança a protocolos como ARP, DHCP, LACP normalmente não protegidos no link Ethernet. Para obter mais informações sobre como configurar o MACSec, consulte MACSec para portas do ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="E17" s="21" t="n"/>
@@ -1388,7 +1388,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>7091a086-8128-45f8-81e6-c93548433b87</t>
+          <t>90d32454-fcb9-496d-a411-166a2fe50b6b</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1401,12 +1401,12 @@
       <c r="B18" s="21" t="n"/>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Configurar o MACSec para recursos do ExpressRoute Direct</t>
+          <t>Criptografar o tráfego usando IPsec</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>A segurança do Controle de Acesso à Mídia é uma segurança ponto a ponto na camada de enlace de dados. O ExpressRoute Direct dá suporte à configuração do MACSec para evitar ameaças de segurança a protocolos como ARP, DHCP, LACP normalmente não protegidos no link Ethernet. Para obter mais informações sobre como configurar o MACSec, consulte MACSec para portas do ExpressRoute Direct.</t>
+          <t>Configure um túnel VPN site a site no circuito do ExpressRoute para criptografar a transferência de dados entre a rede local e a rede virtual do Azure. Você pode configurar um túnel usando o emparelhamento privado ou usando o emparelhamento da Microsoft.</t>
         </is>
       </c>
       <c r="E18" s="21" t="n"/>
@@ -1422,7 +1422,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>90d32454-fcb9-496d-a411-166a2fe50b6b</t>
+          <t>ef702434-e1ce-4c4b-a2a6-553c1d58f881</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1435,12 +1435,12 @@
       <c r="B19" s="21" t="n"/>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Criptografar o tráfego usando IPsec</t>
+          <t>Familiarize-se com os preços do ExpressRoute</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>Configure um túnel VPN site a site no circuito do ExpressRoute para criptografar a transferência de dados entre a rede local e a rede virtual do Azure. Você pode configurar um túnel usando o emparelhamento privado ou usando o emparelhamento da Microsoft.</t>
+          <t>Para obter informações sobre os preços do ExpressRoute, consulte Entender os preços do Azure ExpressRoute. Você também pode usar a calculadora de preços. Certifique-se de que as opções sejam dimensionadas adequadamente para atender à demanda de capacidade e fornecer o desempenho esperado sem desperdiçar recursos.</t>
         </is>
       </c>
       <c r="E19" s="21" t="n"/>
@@ -1456,7 +1456,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>ef702434-e1ce-4c4b-a2a6-553c1d58f881</t>
+          <t>8ae8772a-7131-42f9-9d2f-ce2aa5bcdd2b</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1469,12 +1469,12 @@
       <c r="B20" s="21" t="n"/>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Familiarize-se com os preços do ExpressRoute</t>
+          <t>Determinar SKU e largura de banda necessárias</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>Para obter informações sobre os preços do ExpressRoute, consulte Entender os preços do Azure ExpressRoute. Você também pode usar a calculadora de preços. Certifique-se de que as opções sejam dimensionadas adequadamente para atender à demanda de capacidade e fornecer o desempenho esperado sem desperdiçar recursos.</t>
+          <t>A maneira como você é cobrado pelo uso do ExpressRoute varia entre os três tipos diferentes de SKU. Com o SKU Local, você é cobrado automaticamente com um plano de dados ilimitado. Com o SKU Standard e Premium, você pode selecionar entre um plano de dados medido ou ilimitado. Todos os dados de entrada são gratuitos, exceto ao usar o complemento Global Reach. É importante entender quais tipos de SKU e plano de dados funcionam melhor para sua carga de trabalho para otimizar melhor o custo e o orçamento. Para obter mais informações sobre como redimensionar o circuito do ExpressRoute, consulte atualizando a largura de banda do circuito do ExpressRoute.</t>
         </is>
       </c>
       <c r="E20" s="21" t="n"/>
@@ -1490,7 +1490,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>8ae8772a-7131-42f9-9d2f-ce2aa5bcdd2b</t>
+          <t>18ef72cd-862c-43e8-b9ee-921fb5f079f0</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1503,12 +1503,12 @@
       <c r="B21" s="21" t="n"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Determinar SKU e largura de banda necessárias</t>
+          <t>Determinar o tamanho do gateway de rede virtual do ExpressRoute</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>A maneira como você é cobrado pelo uso do ExpressRoute varia entre os três tipos diferentes de SKU. Com o SKU Local, você é cobrado automaticamente com um plano de dados ilimitado. Com o SKU Standard e Premium, você pode selecionar entre um plano de dados medido ou ilimitado. Todos os dados de entrada são gratuitos, exceto ao usar o complemento Global Reach. É importante entender quais tipos de SKU e plano de dados funcionam melhor para sua carga de trabalho para otimizar melhor o custo e o orçamento. Para obter mais informações sobre como redimensionar o circuito do ExpressRoute, consulte atualizando a largura de banda do circuito do ExpressRoute.</t>
+          <t>Os gateways de rede virtual do ExpressRoute são usados para passar o tráfego para uma rede virtual por meio de emparelhamento privado. Examine as necessidades de desempenho e escala do SKU do Gateway de Rede Virtual preferencial. Selecione o SKU de gateway apropriado em sua carga de trabalho local para o Azure.</t>
         </is>
       </c>
       <c r="E21" s="21" t="n"/>
@@ -1524,7 +1524,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>18ef72cd-862c-43e8-b9ee-921fb5f079f0</t>
+          <t>3655e3bc-9d56-47f6-b7bc-c1a568aa3c8a</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1537,12 +1537,12 @@
       <c r="B22" s="21" t="n"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Determinar o tamanho do gateway de rede virtual do ExpressRoute</t>
+          <t>Monitore o custo e crie alertas de orçamento</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>Os gateways de rede virtual do ExpressRoute são usados para passar o tráfego para uma rede virtual por meio de emparelhamento privado. Examine as necessidades de desempenho e escala do SKU do Gateway de Rede Virtual preferencial. Selecione o SKU de gateway apropriado em sua carga de trabalho local para o Azure.</t>
+          <t>Monitore o custo do circuito do ExpressRoute e crie alertas para anomalias de gastos e riscos de gastos excessivos. Para obter mais informações, consulte Monitorando os custos do ExpressRoute.</t>
         </is>
       </c>
       <c r="E22" s="21" t="n"/>
@@ -1558,7 +1558,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>3655e3bc-9d56-47f6-b7bc-c1a568aa3c8a</t>
+          <t>3ade6188-d99d-47de-99e7-639136d3ac36</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1571,12 +1571,12 @@
       <c r="B23" s="21" t="n"/>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Monitore o custo e crie alertas de orçamento</t>
+          <t>Desprovisione e exclua circuitos do ExpressRoute que não estão mais em uso.</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>Monitore o custo do circuito do ExpressRoute e crie alertas para anomalias de gastos e riscos de gastos excessivos. Para obter mais informações, consulte Monitorando os custos do ExpressRoute.</t>
+          <t>Os circuitos do ExpressRoute são cobrados a partir do momento em que são criados. Para reduzir custos desnecessários, desprovisione o circuito com o provedor de serviços e exclua o circuito do ExpressRoute de sua assinatura. Para obter etapas sobre como remover um circuito do ExpressRoute, consulte Desprovisionando um circuito do ExpressRoute.</t>
         </is>
       </c>
       <c r="E23" s="21" t="n"/>
@@ -1592,7 +1592,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>3ade6188-d99d-47de-99e7-639136d3ac36</t>
+          <t>ca8f1e36-5762-4510-b0af-5a073cc9185a</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1605,12 +1605,12 @@
       <c r="B24" s="21" t="n"/>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Desprovisione e exclua circuitos do ExpressRoute que não estão mais em uso.</t>
+          <t>Configurar o monitoramento de conexão</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Os circuitos do ExpressRoute são cobrados a partir do momento em que são criados. Para reduzir custos desnecessários, desprovisione o circuito com o provedor de serviços e exclua o circuito do ExpressRoute de sua assinatura. Para obter etapas sobre como remover um circuito do ExpressRoute, consulte Desprovisionando um circuito do ExpressRoute.</t>
+          <t>O monitoramento de conexão permite que você monitore a conectividade entre seus recursos locais e o Azure por meio do emparelhamento privado do ExpressRoute e da conexão de emparelhamento da Microsoft. O Monitor de Conexão pode detectar problemas de rede identificando onde o problema está ao longo do caminho de rede e ajudá-lo a resolver rapidamente falhas de configuração ou hardware.</t>
         </is>
       </c>
       <c r="E24" s="21" t="n"/>
@@ -1626,7 +1626,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>ca8f1e36-5762-4510-b0af-5a073cc9185a</t>
+          <t>c1dcf762-0191-4963-89d7-3cc1df34b653</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1639,12 +1639,12 @@
       <c r="B25" s="21" t="n"/>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Configurar o monitoramento de conexão</t>
+          <t>Configurar a integridade do serviço</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>O monitoramento de conexão permite que você monitore a conectividade entre seus recursos locais e o Azure por meio do emparelhamento privado do ExpressRoute e da conexão de emparelhamento da Microsoft. O Monitor de Conexão pode detectar problemas de rede identificando onde o problema está ao longo do caminho de rede e ajudá-lo a resolver rapidamente falhas de configuração ou hardware.</t>
+          <t>Configure notificações de Integridade do Serviço para alertar quando a manutenção planejada e futura estiver acontecendo em todos os circuitos do ExpressRoute em sua assinatura. A integridade do serviço também exibe a manutenção anterior junto com a RCA se ocorrer uma manutenção não planejada.</t>
         </is>
       </c>
       <c r="E25" s="21" t="n"/>
@@ -1660,7 +1660,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>c1dcf762-0191-4963-89d7-3cc1df34b653</t>
+          <t>60f840b9-1818-4967-a115-68e90f47daf3</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1673,12 +1673,12 @@
       <c r="B26" s="21" t="n"/>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Configurar a integridade do serviço</t>
+          <t>Analisar métricas com o Network Insights</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>Configure notificações de Integridade do Serviço para alertar quando a manutenção planejada e futura estiver acontecendo em todos os circuitos do ExpressRoute em sua assinatura. A integridade do serviço também exibe a manutenção anterior junto com a RCA se ocorrer uma manutenção não planejada.</t>
+          <t>O ExpressRoute Insights com Network Insights permite que você examine e analise circuitos, gateways, métricas de conexões e painéis de integridade do ExpressRoute. O ExpressRoute Insights também fornece uma exibição de topologia de suas conexões do ExpressRoute, onde você pode exibir detalhes de seus componentes de emparelhamento em um único local. Métricas disponíveis:- Disponibilidade- Taxa de transferência- Métricas de gateway</t>
         </is>
       </c>
       <c r="E26" s="21" t="n"/>
@@ -1694,7 +1694,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>60f840b9-1818-4967-a115-68e90f47daf3</t>
+          <t>c3c5fe66-1901-4786-99ea-845944bd6ca3</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1707,12 +1707,12 @@
       <c r="B27" s="21" t="n"/>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Analisar métricas com o Network Insights</t>
+          <t>Examinar as métricas de recursos do ExpressRoute</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>O ExpressRoute Insights com Network Insights permite que você examine e analise circuitos, gateways, métricas de conexões e painéis de integridade do ExpressRoute. O ExpressRoute Insights também fornece uma exibição de topologia de suas conexões do ExpressRoute, onde você pode exibir detalhes de seus componentes de emparelhamento em um único local. Métricas disponíveis:- Disponibilidade- Taxa de transferência- Métricas de gateway</t>
+          <t>O ExpressRoute usa o Azure Monitor para coletar métricas e criar alertas com base em sua configuração. As métricas são coletadas para circuitos do ExpressRoute, gateways do ExpressRoute, conexões de gateway do ExpressRoute e ExpressRoute Direct. Essas métricas são úteis para diagnosticar problemas de conectividade e entender o desempenho da conexão do ExpressRoute.</t>
         </is>
       </c>
       <c r="E27" s="21" t="n"/>
@@ -1727,7 +1727,7 @@
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>c3c5fe66-1901-4786-99ea-845944bd6ca3</t>
+          <t>03914313-6287-41c4-9e4a-4980c2ee3aa9</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1740,12 +1740,12 @@
       <c r="B28" s="21" t="n"/>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Examinar as métricas de recursos do ExpressRoute</t>
+          <t>Teste o desempenho do gateway do ExpressRoute para atender aos requisitos de carga de trabalho.</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>O ExpressRoute usa o Azure Monitor para coletar métricas e criar alertas com base em sua configuração. As métricas são coletadas para circuitos do ExpressRoute, gateways do ExpressRoute, conexões de gateway do ExpressRoute e ExpressRoute Direct. Essas métricas são úteis para diagnosticar problemas de conectividade e entender o desempenho da conexão do ExpressRoute.</t>
+          <t>Use o Kit de Ferramentas de Conectividade do Azure para testar o desempenho em seu circuito do ExpressRoute para entender a capacidade de largura de banda e a latência de sua conexão de rede.</t>
         </is>
       </c>
       <c r="E28" s="21" t="n"/>
@@ -1760,7 +1760,7 @@
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>03914313-6287-41c4-9e4a-4980c2ee3aa9</t>
+          <t>07fac8bb-13c5-44b8-a4e8-7e2ed1a84b48</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -1773,12 +1773,12 @@
       <c r="B29" s="21" t="n"/>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Teste o desempenho do gateway do ExpressRoute para atender aos requisitos de carga de trabalho.</t>
+          <t>Aumente o tamanho do gateway do ExpressRoute.</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>Use o Kit de Ferramentas de Conectividade do Azure para testar o desempenho em seu circuito do ExpressRoute para entender a capacidade de largura de banda e a latência de sua conexão de rede.</t>
+          <t>Atualize para um SKU de gateway mais alto para melhorar o desempenho da taxa de transferência entre o ambiente local e o Azure.</t>
         </is>
       </c>
       <c r="E29" s="21" t="n"/>
@@ -1793,7 +1793,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>07fac8bb-13c5-44b8-a4e8-7e2ed1a84b48</t>
+          <t>7f788e1a-71dd-4a3e-b19f-6bd8ef8ad815</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -1806,12 +1806,12 @@
       <c r="B30" s="21" t="n"/>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Aumente o tamanho do gateway do ExpressRoute.</t>
+          <t>Atualizar a largura de banda do circuito do ExpressRoute</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>Atualize para um SKU de gateway mais alto para melhorar o desempenho da taxa de transferência entre o ambiente local e o Azure.</t>
+          <t>Atualize a largura de banda do circuito para atender aos requisitos de carga de trabalho. A largura de banda do circuito é compartilhada entre todas as redes virtuais conectadas ao circuito do ExpressRoute. Dependendo da carga de trabalho, uma ou mais redes virtuais podem usar toda a largura de banda no circuito.</t>
         </is>
       </c>
       <c r="E30" s="21" t="n"/>
@@ -1826,7 +1826,7 @@
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>7f788e1a-71dd-4a3e-b19f-6bd8ef8ad815</t>
+          <t>5cd4120c-3a0b-42d0-8114-2663988f43b8</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -1839,12 +1839,12 @@
       <c r="B31" s="21" t="n"/>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Atualizar a largura de banda do circuito do ExpressRoute</t>
+          <t>Habilitar o ExpressRoute FastPath para maior taxa de transferência</t>
         </is>
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>Atualize a largura de banda do circuito para atender aos requisitos de carga de trabalho. A largura de banda do circuito é compartilhada entre todas as redes virtuais conectadas ao circuito do ExpressRoute. Dependendo da carga de trabalho, uma ou mais redes virtuais podem usar toda a largura de banda no circuito.</t>
+          <t>Se você estiver usando um desempenho Ultra ou um gateway de rede virtual ErGW3AZ, poderá habilitar o FastPath para melhorar o desempenho do caminho de dados entre sua rede local e a rede virtual do Azure.</t>
         </is>
       </c>
       <c r="E31" s="21" t="n"/>
@@ -1859,7 +1859,7 @@
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>5cd4120c-3a0b-42d0-8114-2663988f43b8</t>
+          <t>ef778b99-5006-4adf-bef1-d709456a4c51</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -1872,12 +1872,12 @@
       <c r="B32" s="21" t="n"/>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Habilitar o ExpressRoute FastPath para maior taxa de transferência</t>
+          <t>Monitorar métricas de gateway e circuito do ExpressRoute</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>Se você estiver usando um desempenho Ultra ou um gateway de rede virtual ErGW3AZ, poderá habilitar o FastPath para melhorar o desempenho do caminho de dados entre sua rede local e a rede virtual do Azure.</t>
+          <t>Configure alertas com base nas métricas do ExpressRoute para notificá-lo proativamente quando um determinado limite for atingido. Essas métricas são úteis para entender anomalias que podem ocorrer com sua conexão do ExpressRoute, como interrupções e manutenção que ocorrem em seus circuitos do ExpressRoute.</t>
         </is>
       </c>
       <c r="E32" s="21" t="n"/>
@@ -1893,7 +1893,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>ef778b99-5006-4adf-bef1-d709456a4c51</t>
+          <t>4a0e8302-106d-48a3-abc4-9e4875a48309</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -1904,32 +1904,15 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="n"/>
       <c r="B33" s="21" t="n"/>
-      <c r="C33" s="21" t="inlineStr">
-        <is>
-          <t>Monitorar métricas de gateway e circuito do ExpressRoute</t>
-        </is>
-      </c>
-      <c r="D33" s="21" t="inlineStr">
-        <is>
-          <t>Configure alertas com base nas métricas do ExpressRoute para notificá-lo proativamente quando um determinado limite for atingido. Essas métricas são úteis para entender anomalias que podem ocorrer com sua conexão do ExpressRoute, como interrupções e manutenção que ocorrem em seus circuitos do ExpressRoute.</t>
-        </is>
-      </c>
+      <c r="C33" s="21" t="n"/>
+      <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="n"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="n"/>
       <c r="I33" s="15" t="n"/>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
-      <c r="L33" s="25" t="inlineStr">
-        <is>
-          <t>4a0e8302-106d-48a3-abc4-9e4875a48309</t>
-        </is>
-      </c>
+      <c r="L33" s="25" t="n"/>
       <c r="M33" s="25" t="n"/>
       <c r="N33" s="25" t="n"/>
       <c r="O33" s="25" t="n"/>
@@ -6249,7 +6232,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F34" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F33" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/azureexpressroute_sg_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/azureexpressroute_sg_checklist.pt.xlsx
@@ -1134,7 +1134,7 @@
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>Os circuitos dedicados do ExpressRoute garantem a disponibilidade de '99,95%' quando uma conectividade ativa-ativa é configurada entre o local e o Azure. Esse modo fornece maior disponibilidade da conexão do Expressroute. Também é recomendável configurar o BFD para failover mais rápido se houver uma falha de link em uma conexão.</t>
+          <t>Esse modo fornece maior disponibilidade de suas conexões do Expressroute. Também é recomendável configurar o BFD para failover mais rápido se houver uma falha de link em uma conexão.</t>
         </is>
       </c>
       <c r="E10" s="21" t="n"/>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>Crie um Gateway de Rede Virtual com reconhecimento de zona de disponibilidade para maior resiliência e planeje Gateways de Rede Virtual em diferentes regiões para recuperação de desastre e alta disponibilidade.</t>
+          <t>Crie um Gateway de Rede Virtual com reconhecimento de zona de disponibilidade para maior resiliência e planeje Gateways de Rede Virtual em diferentes regiões para resiliência, recuperação de desastre e alta disponibilidade.</t>
         </is>
       </c>
       <c r="E11" s="21" t="n"/>
